--- a/积累库/游戏设计方案.xlsx
+++ b/积累库/游戏设计方案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19995" windowHeight="11475"/>
+    <workbookView windowWidth="25200" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
-  <si>
-    <t>方案</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">描述 </t>
   </si>
   <si>
     <t>采用的游戏</t>
   </si>
   <si>
-    <t>参考</t>
+    <t>参考&amp;用例</t>
+  </si>
+  <si>
+    <t>缺点</t>
   </si>
   <si>
     <t>自动生成敌人难度调控方案1</t>
@@ -67,7 +70,7 @@
     <t>肉鸽地图生成方案1</t>
   </si>
   <si>
-    <t xml:space="preserve">触边算法 </t>
+    <t>触边算法</t>
   </si>
   <si>
     <t>BV1SL411V7r6</t>
@@ -80,6 +83,53 @@
   </si>
   <si>
     <t>以撒的结合</t>
+  </si>
+  <si>
+    <t>系统思维</t>
+  </si>
+  <si>
+    <t>reductionism</t>
+  </si>
+  <si>
+    <t>任何现象，无论多么复杂，原则上都可以被看作仅仅是其各个部分的总和，每个部分对整体发挥其作用</t>
+  </si>
+  <si>
+    <t>拆解过头而忽略整体greedy reductionism</t>
+  </si>
+  <si>
+    <t>holism</t>
+  </si>
+  <si>
+    <t>通过整体思考，您不会迷失在细节中，并且能够观察在更高层次的组织中运行的重大宏观影响和趋势，如团体、经济、生态等。</t>
+  </si>
+  <si>
+    <t>systematic approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.系统是由部分组成. 每个部分有内部状态和外部边界。每个部位通过行动进行连接 行为为向其他部分发送信息或是资源，从而影响部位的其他状态
+2.部分通过行为与其他部分交互来创建循环。
+3.系统表现出有组织的、分散的、但协调的行为。一个系统创造了一个统一的整体，而这个整体又只是一个更大系统的一部分。
+ </t>
+  </si>
+  <si>
+    <t>advanced game design: A system approach P63页</t>
+  </si>
+  <si>
+    <t>MDA方案-改</t>
+  </si>
+  <si>
+    <t>1.机制：功能层面
+2.动态：流程层面
+3.美学：表现层面
+0.设计理念，又或者游戏体验（属于贯彻面，在1，2，3里都能体现，同时又与每个1，2，3三个系统无行为交互）</t>
+  </si>
+  <si>
+    <t>FBS方案</t>
+  </si>
+  <si>
+    <t>1.目的
+2.属性和行为
+3.结构</t>
   </si>
 </sst>
 </file>
@@ -92,7 +142,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,10 +152,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -252,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +317,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -452,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -479,24 +541,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -618,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,36 +681,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,118 +717,187 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1130,253 +1247,772 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
+    <col min="3" max="9" width="9" style="3"/>
+    <col min="10" max="10" width="18.625" style="4" customWidth="1"/>
+    <col min="11" max="16" width="9" style="5"/>
+    <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="35" customHeight="1" spans="1:16">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="4" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="P1" s="23"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="4" t="s">
+      <c r="K2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:16">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" ht="21" customHeight="1" spans="1:16">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="4" t="s">
+      <c r="K8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7"/>
+      <c r="B15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="7"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" ht="12" customHeight="1" spans="1:9">
+      <c r="A17" s="7"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7"/>
+      <c r="B18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="K18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="7"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:16">
+      <c r="A23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:16">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:16">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:16">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="3:9">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="3:9">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="3:9">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="3:9">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="3:9">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="3:9">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="3:9">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="44">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B22"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J14"/>
     <mergeCell ref="A2:B3"/>
+    <mergeCell ref="O2:P3"/>
     <mergeCell ref="C2:I3"/>
     <mergeCell ref="C4:I5"/>
     <mergeCell ref="K2:N3"/>
@@ -1384,13 +2020,27 @@
     <mergeCell ref="K6:N7"/>
     <mergeCell ref="C6:I7"/>
     <mergeCell ref="A4:B5"/>
+    <mergeCell ref="O4:P5"/>
     <mergeCell ref="A6:B7"/>
+    <mergeCell ref="O6:P7"/>
     <mergeCell ref="A8:B9"/>
+    <mergeCell ref="O8:P9"/>
     <mergeCell ref="C8:I9"/>
     <mergeCell ref="K8:N9"/>
     <mergeCell ref="A10:B11"/>
+    <mergeCell ref="O10:P11"/>
     <mergeCell ref="C10:I11"/>
     <mergeCell ref="K10:N11"/>
+    <mergeCell ref="O12:P14"/>
+    <mergeCell ref="C12:I14"/>
+    <mergeCell ref="K12:N14"/>
+    <mergeCell ref="C15:I17"/>
+    <mergeCell ref="K18:N22"/>
+    <mergeCell ref="C18:I22"/>
+    <mergeCell ref="A23:B27"/>
+    <mergeCell ref="C23:I27"/>
+    <mergeCell ref="A28:B31"/>
+    <mergeCell ref="C28:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1403,8 +2053,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/积累库/游戏设计方案.xlsx
+++ b/积累库/游戏设计方案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="13395"/>
+    <workbookView windowWidth="13725" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>方法</t>
   </si>
@@ -130,6 +130,19 @@
     <t>1.目的
 2.属性和行为
 3.结构</t>
+  </si>
+  <si>
+    <t>好奇心的调度</t>
+  </si>
+  <si>
+    <t>1.隐藏信息
+2.加入彩蛋
+3.提供大量内容，非重复支线
+4.物件和环境，物件和物件，环境和环境的各种组合玩法
+5.打破第四面墙，给玩家自己的感觉</t>
+  </si>
+  <si>
+    <t>弹跳式关卡设计</t>
   </si>
 </sst>
 </file>
@@ -811,7 +824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,12 +855,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,18 +867,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -880,15 +884,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1250,7 +1245,7 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:I31"/>
+      <selection activeCell="A35" sqref="A35:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1277,21 +1272,21 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="23"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" ht="13.5" spans="1:16">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1314,10 +1309,10 @@
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" ht="13.5" spans="1:16">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -1332,10 +1327,10 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" ht="13.5" spans="1:16">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1358,8 +1353,8 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:16">
       <c r="A5" s="7"/>
@@ -1376,10 +1371,10 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" ht="13.5" spans="1:16">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1402,8 +1397,8 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" ht="21" customHeight="1" spans="1:16">
       <c r="A7" s="7"/>
@@ -1420,10 +1415,10 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" ht="13.5" spans="1:16">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -1446,10 +1441,10 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" ht="13.5" spans="1:16">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -1464,10 +1459,10 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" ht="13.5" spans="1:16">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1490,10 +1485,10 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" ht="13.5" spans="1:16">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1508,10 +1503,10 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" ht="13.5" spans="1:16">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1527,17 +1522,13 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
+      <c r="J12" s="14"/>
       <c r="O12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" ht="13.5" spans="1:16">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -1547,15 +1538,11 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="J13" s="14"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" ht="13.5" spans="1:16">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -1565,327 +1552,383 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="14"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" ht="13.5" spans="1:9">
       <c r="A15" s="7"/>
       <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" ht="13.5" spans="1:9">
       <c r="A16" s="7"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" ht="12" customHeight="1" spans="1:9">
       <c r="A17" s="7"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" ht="13.5" spans="1:14">
       <c r="A18" s="7"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="K18" s="19" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="K18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" ht="13.5" spans="1:14">
       <c r="A19" s="7"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" ht="13.5" spans="1:14">
       <c r="A20" s="7"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" ht="13.5" spans="1:14">
       <c r="A21" s="7"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" ht="13.5" spans="1:14">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:16">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:16">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:16">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:16">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="18" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" ht="13.5" spans="1:9">
+      <c r="A28" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-    </row>
-    <row r="32" spans="3:9">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="3:9">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="3:9">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="3:9">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="3:9">
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="3:9">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" ht="13.5" spans="1:9">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" ht="13.5" spans="1:9">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" ht="13.5" spans="1:9">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" customFormat="1" spans="1:16">
+      <c r="A32" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:16">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" customFormat="1" ht="74" customHeight="1" spans="1:16">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" customFormat="1" spans="1:16">
+      <c r="A35" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+    </row>
+    <row r="36" customFormat="1" spans="1:16">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+    </row>
+    <row r="37" customFormat="1" spans="1:16">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
     </row>
     <row r="38" spans="3:9">
       <c r="C38" s="5"/>
@@ -1996,7 +2039,7 @@
       <c r="I49" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="48">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="K1:N1"/>
@@ -2041,6 +2084,10 @@
     <mergeCell ref="C23:I27"/>
     <mergeCell ref="A28:B31"/>
     <mergeCell ref="C28:I31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:I34"/>
+    <mergeCell ref="A35:B37"/>
+    <mergeCell ref="C35:I37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
